--- a/OLE.xlsx
+++ b/OLE.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="a_matrix" vbProcedure="false">Sheet1!$C$1:$E$3</definedName>
+    <definedName function="false" hidden="false" name="megoldas" vbProcedure="false">Sheet1!$I$1:$I$3</definedName>
     <definedName function="false" hidden="false" name="p_coeff" vbProcedure="false">Sheet1!$A$1:$A$3</definedName>
     <definedName function="false" hidden="false" name="RHS" vbProcedure="false">Sheet1!$G$1:$G$3</definedName>
   </definedNames>
@@ -59,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -100,6 +101,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -131,6 +139,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top/>
@@ -163,6 +178,13 @@
       <right style="hair"/>
       <top style="thin"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -191,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,6 +271,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,10 +303,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,40 +327,43 @@
       <c r="G1" s="5" t="n">
         <v>50</v>
       </c>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>-4</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="10" t="n">
         <v>-40</v>
       </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="14" t="n">
         <v>-2</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="16" t="n">
         <v>22</v>
       </c>
+      <c r="I3" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
